--- a/pred_ohlcv/54_21/2020-01-23 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 LUNA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>3387.237200000001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>203.5620000000013</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>8554.847200000002</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>5272.193100000002</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>5787.402100000002</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>5787.402100000002</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>9428.201600000002</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>6071.107300000002</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>5019.004800000002</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>7975.476200000002</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>3875.076200000002</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>4348.455200000001</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>240.5357000000013</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>5843.458400000001</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>8898.369600000002</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>8898.369600000002</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2503.392900000002</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1067.241800000002</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1067.241800000002</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2569.297399999998</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-5939.657999999999</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-15958.7842</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-14718.2546</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-14718.2546</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-13623.7288</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-10241.6807</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-10241.6807</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-10241.6807</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-2045.996000000001</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>2177.443399999999</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1406.715400000001</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1406.715400000001</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>4204.756399999999</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>7005.875499999999</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>3848.212799999999</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>7576.531999999999</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>7576.531999999999</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>5242.397199999999</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>8080.8649</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>8080.8649</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>8080.8649</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-2132.566</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1188.6484</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1188.6484</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3047.0517</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-3047.0517</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-240.1035999999999</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-240.1035999999999</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>1694.2108</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1694.2108</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1694.2108</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-12251.7888</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-13680.6495</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-13680.6495</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-13680.6495</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-10472.6319</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-12309.9015</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-12309.9015</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-12309.9015</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-12309.9015</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-12309.9015</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-7618.468899999996</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-7618.468899999996</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-7618.468899999996</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-7618.468899999996</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-7618.468899999996</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-26795.79599999999</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-35541.53479999999</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-30519.27689329998</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-25606.14579329998</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-30115.71979329998</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-41900.24069329997</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-35993.66019329998</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-26701.35219329997</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-26701.35219329997</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-23508.79519329997</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-26434.50849329997</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-26434.50849329997</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-26434.50849329997</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-31592.80399329997</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-30491.26129329997</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-28589.29939329997</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-29486.97209329997</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-26626.30719329997</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-18777.26769329997</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-7838.236693299967</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-9893.050593299966</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-9893.050593299966</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-9893.050593299966</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-13329.16179329997</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-10001.83179329997</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-10001.83179329997</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-10001.83179329997</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-13204.97369329997</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-9313.339293299967</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-9313.339293299967</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-4019.948593299967</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-4777.544593299966</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-4777.544593299966</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-4777.544593299966</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-6318.865993299966</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-6318.865993299966</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-6318.865993299966</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-6318.865993299966</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-3036.574381559966</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-2261.439681559966</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-5064.069881559966</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-5064.069881559966</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-1081.577281559966</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-1081.577281559966</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-322.8034815599661</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>2671.714618440034</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>5644.579418440033</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>1923.318118440033</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>1923.318118440033</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-547.6412815599672</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>2074.364918440033</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>2074.364918440033</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>2074.364918440033</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>2074.364918440033</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>3452.959818440033</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>6756.025618440033</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>14989.74301844003</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>15578.21851844003</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>14141.74071844003</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>14141.74071844003</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>31641.06201844003</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>24029.98771844003</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-6176.665263899969</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-4127.999663899969</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-4127.999663899969</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-4127.999663899969</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>131.9013361000307</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-28525.74956389997</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-27726.78806389997</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-29270.50176389997</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-29448.69676389997</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-29448.69676389997</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-29448.69676389997</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-30194.64316389997</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-32609.76666389997</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-37591.36006389997</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-40245.72986389997</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-37747.56656389997</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-37747.56656389997</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-37747.56656389997</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-37747.56656389997</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-37747.56656389997</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-33986.73866389997</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-35375.72026389997</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-35375.72026389997</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-35375.72026389997</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-35375.72026389997</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-35375.72026389997</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-33782.77276389997</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-36777.38516389997</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-36777.38516389997</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-31677.96516389997</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-31677.96516389997</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-31677.96516389997</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-31677.96516389997</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-24751.99546389997</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-24751.99546389997</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-24751.99546389997</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-24751.99546389997</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-25674.37056389997</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-28640.27706389997</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-28640.27706389997</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-28640.27706389997</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-35396.69056389997</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-32314.82516389998</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-26786.87186389997</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-32599.18596389997</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-32599.18596389997</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-64886.07436389997</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-109340.8239639</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-116321.2542639</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-112533.8191639</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-107902.0268639</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-122590.5428639</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-122590.5428639</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-123957.5762639</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-118183.7045639</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-354951.0499626199</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-354951.0499626199</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-354951.0499626199</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-354951.0499626199</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-358613.3962626199</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-362659.9935626199</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-362659.9935626199</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-363842.7829626199</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-363842.7829626199</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-368361.5714626199</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-368361.5714626199</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-368361.5714626199</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-371122.6532626199</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-376021.5920626199</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-448543.4649626199</v>
       </c>
       <c r="H1175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-454752.11476262</v>
       </c>
       <c r="H1176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-448910.0568626199</v>
       </c>
       <c r="H1177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-448910.0568626199</v>
       </c>
       <c r="H1178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-472028.7864626199</v>
       </c>
       <c r="H1182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-472028.7864626199</v>
       </c>
       <c r="H1183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-467607.5531626199</v>
       </c>
       <c r="H1184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-464908.8581626199</v>
       </c>
       <c r="H1185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-464908.8581626199</v>
       </c>
       <c r="H1186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-474203.3716626199</v>
       </c>
       <c r="H1187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-478169.6287626199</v>
       </c>
       <c r="H1188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-475040.6305626199</v>
       </c>
       <c r="H1189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-479194.6145626199</v>
       </c>
       <c r="H1190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-479194.6145626199</v>
       </c>
       <c r="H1191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-471206.4050626199</v>
       </c>
       <c r="H1197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-475142.0825626199</v>
       </c>
       <c r="H1204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-473535.6812626199</v>
       </c>
       <c r="H1205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-474359.2541626199</v>
       </c>
       <c r="H1208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-473937.0408626199</v>
       </c>
       <c r="H1210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-470028.8773626199</v>
       </c>
       <c r="H1211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-470028.8773626199</v>
       </c>
       <c r="H1212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-475742.7727626198</v>
       </c>
       <c r="H1213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-475742.7727626198</v>
       </c>
       <c r="H1214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-472085.9590626198</v>
       </c>
       <c r="H1224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-472085.9590626198</v>
       </c>
       <c r="H1225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-472085.9590626198</v>
       </c>
       <c r="H1226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-472085.9590626198</v>
       </c>
       <c r="H1227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-473964.7013626198</v>
       </c>
       <c r="H1228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-473964.7013626198</v>
       </c>
       <c r="H1229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-475743.2232626198</v>
       </c>
       <c r="H1230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-475743.2232626198</v>
       </c>
       <c r="H1231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-471065.3706626198</v>
       </c>
       <c r="H1232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-480288.2539626198</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-471489.2041626198</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-471489.2041626198</v>
       </c>
       <c r="H1273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-471489.2041626198</v>
       </c>
       <c r="H1274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-466300.7600626198</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>-452934.6373626198</v>
       </c>
       <c r="H1284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>-458362.3683626198</v>
       </c>
       <c r="H1285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>-454446.8494626197</v>
       </c>
       <c r="H1286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>-459822.4105626197</v>
       </c>
       <c r="H1287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>-468342.8975626198</v>
       </c>
       <c r="H1288">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>-467255.3945626197</v>
       </c>
       <c r="H1289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>-469788.2555626197</v>
       </c>
       <c r="H1290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>-469788.2555626197</v>
       </c>
       <c r="H1291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>-461844.0508626198</v>
       </c>
       <c r="H1295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>-464484.6861626198</v>
       </c>
       <c r="H1296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>-458010.1439626198</v>
       </c>
       <c r="H1297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>-448006.9193626198</v>
       </c>
       <c r="H1298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>-451455.0227626198</v>
       </c>
       <c r="H1299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-450586.8301626198</v>
       </c>
       <c r="H1300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-454518.4061626198</v>
       </c>
       <c r="H1301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-459954.7344626198</v>
       </c>
       <c r="H1302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-454481.6520626197</v>
       </c>
       <c r="H1303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-453086.0518626198</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-456990.0078626198</v>
       </c>
       <c r="H1305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-453130.3348626198</v>
       </c>
       <c r="H1306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-456801.8703626198</v>
       </c>
       <c r="H1307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-463038.3470626198</v>
       </c>
       <c r="H1308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>-460295.7231626197</v>
       </c>
       <c r="H1309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 LUNA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1636.314299999998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>3387.237200000001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>203.5620000000013</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>3459.079500000001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>8554.847200000002</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>5272.193100000002</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>5787.402100000002</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>5787.402100000002</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>9428.201600000002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>5668.872400000002</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>6071.107300000002</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>2789.881800000002</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>5019.004800000002</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3164.908000000002</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>7975.476200000002</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>5376.707300000002</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>3875.076200000002</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>6687.338800000001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2084.223700000001</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>9921.493900000001</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>4348.455200000001</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>240.5357000000013</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>5843.458400000001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>8898.369600000002</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>8898.369600000002</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>5583.013100000002</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2503.392900000002</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1067.241800000002</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1067.241800000002</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2569.297399999998</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-10535.7444</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-6017.489699999997</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-7768.754099999997</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-7768.754099999997</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-4945.835899999997</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4945.835899999997</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-9543.951999999997</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-9543.951999999997</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-6663.172599999998</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-8722.120399999998</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-8722.120399999998</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-6068.991799999998</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-6068.991799999998</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-5153.410599999998</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-5939.657999999999</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-8867.790799999999</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-6324.637799999999</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-9908.932799999999</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-15958.7842</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-14718.2546</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-14718.2546</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-13623.7288</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-14497.4432</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-13538.7593</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-10241.6807</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-10241.6807</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-10241.6807</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-3101.664000000001</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-2045.996000000001</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1128.467000000001</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>2177.443399999999</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1406.715400000001</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1406.715400000001</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>4204.756399999999</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>7005.875499999999</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>3848.212799999999</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>7576.531999999999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>7576.531999999999</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>5242.397199999999</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>8080.8649</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>8080.8649</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>8080.8649</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-2132.566</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1188.6484</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1188.6484</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3047.0517</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-3047.0517</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-240.1035999999999</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-240.1035999999999</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>1694.2108</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1694.2108</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1694.2108</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>5221.4831</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-10307.0683</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-12251.7888</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-10148.7967</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-10326.84</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-13680.6495</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-13680.6495</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-13680.6495</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-13591.5698</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-10472.6319</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-12309.9015</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-12309.9015</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-12309.9015</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-12309.9015</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-12309.9015</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-7618.468899999996</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-7618.468899999996</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-7618.468899999996</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-7618.468899999996</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-7618.468899999996</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-22693.96479999999</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-26795.79599999999</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-35541.53479999999</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-31525.12439999999</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-38634.9708</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-41924.1176</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-41924.1176</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-42624.1176</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-55128.1707</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-55128.1707</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-68962.34969999999</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-58791.81879999999</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-58791.81879999999</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-63857.06769999999</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-65781.05979999999</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-63023.85569999999</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-63023.85569999999</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-63023.85569999999</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-63023.85569999999</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-63023.85569999999</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-65533.69159999998</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-69345.35969999999</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-63346.26829999999</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-72560.1079</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-30519.27689329998</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-25606.14579329998</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-30115.71979329998</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-33931.23709329998</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-41900.24069329997</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-35993.66019329998</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-26701.35219329997</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-26701.35219329997</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-23508.79519329997</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-26434.50849329997</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-26434.50849329997</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-26434.50849329997</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-31592.80399329997</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-30491.26129329997</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-28589.29939329997</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-29486.97209329997</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-26626.30719329997</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-23976.00929329997</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-18777.26769329997</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-7838.236693299967</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-9079.129693299967</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-10601.72699329997</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-9893.050593299966</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-9893.050593299966</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-9893.050593299966</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-13329.16179329997</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-10001.83179329997</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-10001.83179329997</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-10001.83179329997</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-13204.97369329997</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-9313.339293299967</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-9313.339293299967</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-4019.948593299967</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-4777.544593299966</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-4777.544593299966</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-4777.544593299966</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-6318.865993299966</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-6318.865993299966</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-6318.865993299966</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-6318.865993299966</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-3036.574381559966</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-2261.439681559966</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-5064.069881559966</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-5064.069881559966</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-1081.577281559966</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-1081.577281559966</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-322.8034815599661</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>2671.714618440034</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>5644.579418440033</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>1923.318118440033</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>1923.318118440033</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>1105.065018440033</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-547.6412815599672</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>2074.364918440033</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>2074.364918440033</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>2074.364918440033</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>2074.364918440033</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>3452.959818440033</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>6756.025618440033</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>14989.74301844003</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>15578.21851844003</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>14141.74071844003</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>14141.74071844003</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>31641.06201844003</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>24029.98771844003</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-6176.665263899969</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-4127.999663899969</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-4127.999663899969</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-4127.999663899969</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>131.9013361000307</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-34081.00546389997</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-28525.74956389997</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-27726.78806389997</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-30334.64866389997</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-29451.07866389997</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-29270.50176389997</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-29448.69676389997</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-29448.69676389997</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-29448.69676389997</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-30194.64316389997</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-32609.76666389997</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-37591.36006389997</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-40245.72986389997</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-37747.56656389997</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-37747.56656389997</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-37747.56656389997</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-37747.56656389997</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-37747.56656389997</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-33986.73866389997</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-35375.72026389997</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-35375.72026389997</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-35375.72026389997</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-35375.72026389997</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-35375.72026389997</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-33782.77276389997</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-36777.38516389997</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-36777.38516389997</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-31677.96516389997</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-31677.96516389997</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-31677.96516389997</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-31677.96516389997</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-24751.99546389997</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-24751.99546389997</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-24751.99546389997</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-24751.99546389997</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-25674.37056389997</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-28640.27706389997</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-28640.27706389997</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-28640.27706389997</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-35396.69056389997</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-32314.82516389998</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-26786.87186389997</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-32599.18596389997</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-32599.18596389997</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-64886.07436389997</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-109340.8239639</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-116321.2542639</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-112533.8191639</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-107902.0268639</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-122590.5428639</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-122590.5428639</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-123957.5762639</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-118183.7045639</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-354951.0499626199</v>
       </c>
       <c r="H1150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-354951.0499626199</v>
       </c>
       <c r="H1151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-354951.0499626199</v>
       </c>
       <c r="H1152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-354951.0499626199</v>
       </c>
       <c r="H1153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-358613.3962626199</v>
       </c>
       <c r="H1154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-362659.9935626199</v>
       </c>
       <c r="H1155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-362659.9935626199</v>
       </c>
       <c r="H1156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-363842.7829626199</v>
       </c>
       <c r="H1157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-363842.7829626199</v>
       </c>
       <c r="H1158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-368361.5714626199</v>
       </c>
       <c r="H1159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-368361.5714626199</v>
       </c>
       <c r="H1160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-368361.5714626199</v>
       </c>
       <c r="H1161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-371122.6532626199</v>
       </c>
       <c r="H1162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-376021.5920626199</v>
       </c>
       <c r="H1163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-473028.6468626198</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-472085.9590626198</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-472085.9590626198</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-472085.9590626198</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-472085.9590626198</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-472085.9590626198</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-472085.9590626198</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-473964.7013626198</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-473964.7013626198</v>
       </c>
       <c r="H1229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-475743.2232626198</v>
       </c>
       <c r="H1230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-475743.2232626198</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-471065.3706626198</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>-452934.6373626198</v>
       </c>
       <c r="H1284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>-458362.3683626198</v>
       </c>
       <c r="H1285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>-454446.8494626197</v>
       </c>
       <c r="H1286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>-459822.4105626197</v>
       </c>
       <c r="H1287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>-468342.8975626198</v>
       </c>
       <c r="H1288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>-469788.2555626197</v>
       </c>
       <c r="H1292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>-469788.2555626197</v>
       </c>
       <c r="H1293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>-466928.5980626197</v>
       </c>
       <c r="H1294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>-461844.0508626198</v>
       </c>
       <c r="H1295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>-464484.6861626198</v>
       </c>
       <c r="H1296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>-458010.1439626198</v>
       </c>
       <c r="H1297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>-448006.9193626198</v>
       </c>
       <c r="H1298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>-451455.0227626198</v>
       </c>
       <c r="H1299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-450586.8301626198</v>
       </c>
       <c r="H1300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-454518.4061626198</v>
       </c>
       <c r="H1301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-459954.7344626198</v>
       </c>
       <c r="H1302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-454481.6520626197</v>
       </c>
       <c r="H1303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-453086.0518626198</v>
       </c>
       <c r="H1304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-456990.0078626198</v>
       </c>
       <c r="H1305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-453130.3348626198</v>
       </c>
       <c r="H1306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-456801.8703626198</v>
       </c>
       <c r="H1307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-463038.3470626198</v>
       </c>
       <c r="H1308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>-460295.7231626197</v>
       </c>
       <c r="H1309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
